--- a/Annual Report on Exchange Arrangements and Exchange Restrictions主题分析/AnnualReportonExchangeArrangementsandExchangeRestrictions1998.xlsx
+++ b/Annual Report on Exchange Arrangements and Exchange Restrictions主题分析/AnnualReportonExchangeArrangementsandExchangeRestrictions1998.xlsx
@@ -37,19 +37,19 @@
     <t>主题5</t>
   </si>
   <si>
-    <t>0.020*"foreign" + 0.020*"exchange" + 0.014*"account" + 0.013*"th" + 0.012*"import" + 0.012*"currency" + 0.011*"control" + 0.011*"ion" + 0.010*"yes" + 0.010*"resident"</t>
-  </si>
-  <si>
-    <t>0.002*"foreign" + 0.001*"exchange" + 0.001*"account" + 0.001*"may" + 0.001*"control" + 0.001*"import" + 0.001*"ing" + 0.001*"yes" + 0.001*"abroad" + 0.001*"currency"</t>
-  </si>
-  <si>
-    <t>0.014*"exchange" + 0.013*"foreign" + 0.009*"th" + 0.009*"import" + 0.008*"currency" + 0.007*"account" + 0.007*"abroad" + 0.007*"nonresident" + 0.006*"control" + 0.006*"ing"</t>
-  </si>
-  <si>
-    <t>0.013*"exchange" + 0.012*"foreign" + 0.011*"account" + 0.008*"th" + 0.008*"import" + 0.007*"yes" + 0.007*"currency" + 0.006*"may" + 0.006*"ing" + 0.006*"export"</t>
-  </si>
-  <si>
-    <t>0.004*"foreign" + 0.003*"exchange" + 0.002*"import" + 0.002*"resident" + 0.002*"account" + 0.002*"export" + 0.002*"abroad" + 0.002*"currency" + 0.002*"th" + 0.002*"yes"</t>
+    <t>0.053*"import" + 0.045*"yes" + 0.019*"license" + 0.018*"ion" + 0.016*"require" + 0.015*"im" + 0.014*"foreign" + 0.014*"approval" + 0.013*"t" + 0.013*"exchange"</t>
+  </si>
+  <si>
+    <t>0.045*"account" + 0.039*"resident" + 0.035*"nonresident" + 0.033*"abroad" + 0.031*"foreign" + 0.024*"control" + 0.023*"purchase" + 0.020*"issue" + 0.020*"credit" + 0.019*"currency"</t>
+  </si>
+  <si>
+    <t>0.042*"export" + 0.028*"th" + 0.027*"may" + 0.027*"foreign" + 0.022*"bank" + 0.022*"requirement" + 0.020*"proceeds" + 0.020*"must" + 0.013*"currency" + 0.011*"transfer"</t>
+  </si>
+  <si>
+    <t>0.031*"fund" + 0.028*"ion" + 0.027*"ing" + 0.022*"international" + 0.021*"monetary" + 0.014*"ly" + 0.013*"foreign" + 0.013*"company" + 0.012*"th" + 0.010*"ic"</t>
+  </si>
+  <si>
+    <t>0.066*"exchange" + 0.035*"payment" + 0.035*"rate" + 0.032*"control" + 0.026*"currency" + 0.021*"trade" + 0.020*"arrangement" + 0.017*"gold" + 0.016*"th" + 0.015*"market"</t>
   </si>
 </sst>
 </file>
